--- a/automationOnboardingSample-master/automationOnboardingSample-master/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/automationOnboardingSample-master/automationOnboardingSample-master/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Url</t>
   </si>
@@ -44,6 +44,18 @@
   </si>
   <si>
     <t>navi.automationtester@gmail.com</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>automate test for verification</t>
+  </si>
+  <si>
+    <t>Added to verify</t>
+  </si>
+  <si>
+    <t>Added for verification</t>
   </si>
 </sst>
 </file>
@@ -90,9 +102,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -374,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -385,9 +400,10 @@
     <col min="1" max="1" width="47.3984375" customWidth="1"/>
     <col min="2" max="2" width="36.3984375" customWidth="1"/>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +413,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -408,8 +427,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" ht="28.5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -419,8 +441,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -429,6 +454,9 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -439,6 +467,7 @@
     <hyperlink ref="A4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
 
